--- a/tests/Test_plates/Test_2/Test_plate_amalgamation.xlsx
+++ b/tests/Test_plates/Test_2/Test_plate_amalgamation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/sensing_array_paper_2019/tests/Test_plates/Test_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/array_sensing/tests/Test_plates/Test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E9367-A842-3748-8276-DD6B8DE63BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC248CC3-81A6-A240-B4C6-EBDF018817ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="10940" windowWidth="27240" windowHeight="15240" xr2:uid="{B18D36EA-6805-F24A-BB5B-53B1CB3A2B6F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{B18D36EA-6805-F24A-BB5B-53B1CB3A2B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
   <si>
     <t>Scaled readings</t>
   </si>
@@ -95,21 +97,12 @@
   <si>
     <t>Merged readings</t>
   </si>
-  <si>
-    <t>Standardised readings</t>
-  </si>
-  <si>
-    <t>Merged readings - original</t>
-  </si>
-  <si>
-    <t>Standardised readings - original</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,15 +118,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,11 +150,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -179,11 +160,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -194,10 +174,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E51466-2804-9745-9823-46FFF741CAE6}">
-  <dimension ref="A2:O83"/>
+  <dimension ref="A2:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,46 +553,46 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.69472844057618488</v>
+        <v>0.69546919431279619</v>
       </c>
       <c r="C4">
-        <v>0.82084095063985374</v>
+        <v>0.83960720130932898</v>
       </c>
       <c r="D4">
-        <v>0.74266010646878533</v>
+        <v>0.74332260659694283</v>
       </c>
       <c r="E4">
-        <v>0.62921106115661762</v>
+        <v>0.6299403774048804</v>
       </c>
       <c r="F4">
-        <v>0.70903548878728495</v>
+        <v>0.70984410960093791</v>
       </c>
       <c r="G4">
-        <v>0.67294900221729492</v>
+        <v>0.67752514210756454</v>
       </c>
       <c r="H4">
-        <v>0.41735282009057223</v>
+        <v>0.42116564417177915</v>
       </c>
       <c r="I4">
-        <v>0.41113189897100094</v>
+        <v>0.42824704813805631</v>
       </c>
       <c r="J4">
-        <v>0.40111329404060247</v>
+        <v>0.41340602950609368</v>
       </c>
       <c r="K4">
-        <v>0.55384918291002161</v>
+        <v>0.55571531272465857</v>
       </c>
       <c r="L4">
-        <v>0.24371280476099058</v>
+        <v>0.2483304712841061</v>
       </c>
       <c r="M4">
-        <v>0.18688110120092702</v>
+        <v>0.19051947143955814</v>
       </c>
       <c r="N4">
-        <v>0.35474924890224174</v>
+        <v>0.35665238029402274</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>2.3052631578947369</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -622,46 +600,46 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.8507848428413971</v>
+        <v>0.85114691943127962</v>
       </c>
       <c r="C5">
-        <v>0.89031078610603287</v>
+        <v>0.90180032733224225</v>
       </c>
       <c r="D5">
-        <v>0.87953702210033879</v>
+        <v>0.87984714400643604</v>
       </c>
       <c r="E5">
-        <v>0.74524234772433329</v>
+        <v>0.74574343844120716</v>
       </c>
       <c r="F5">
-        <v>0.75127367733507511</v>
+        <v>0.75196491380433361</v>
       </c>
       <c r="G5">
-        <v>0.70044345898004434</v>
+        <v>0.70463489287275904</v>
       </c>
       <c r="H5">
-        <v>0.53118567311650888</v>
+        <v>0.53425357873210633</v>
       </c>
       <c r="I5">
-        <v>0.52806361085126285</v>
+        <v>0.54178019981834691</v>
       </c>
       <c r="J5">
-        <v>0.42992796332678457</v>
+        <v>0.44162924951892241</v>
       </c>
       <c r="K5">
-        <v>0.57275054144516635</v>
+        <v>0.57453761192078945</v>
       </c>
       <c r="L5">
-        <v>0.37387214436552119</v>
+        <v>0.37769509635565734</v>
       </c>
       <c r="M5">
-        <v>0.31483952524755954</v>
+        <v>0.31790533454520031</v>
       </c>
       <c r="N5">
-        <v>0.38627224404899468</v>
+        <v>0.38808240011060419</v>
       </c>
       <c r="O5">
-        <v>5.258064516129032</v>
+        <v>2.3894736842105262</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -669,46 +647,46 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.86621565124852729</v>
+        <v>0.86654028436018959</v>
       </c>
       <c r="C6">
-        <v>0.91224862888482627</v>
+        <v>0.92144026186579375</v>
       </c>
       <c r="D6">
-        <v>0.89833037586707531</v>
+        <v>0.89859211584875298</v>
       </c>
       <c r="E6">
-        <v>0.76759869434008743</v>
+        <v>0.76805581166635928</v>
       </c>
       <c r="F6">
-        <v>0.75397343784019155</v>
+        <v>0.75465717139259192</v>
       </c>
       <c r="G6">
-        <v>0.701330376940133</v>
+        <v>0.70550940096195891</v>
       </c>
       <c r="H6">
-        <v>0.51018937834499789</v>
+        <v>0.51339468302658486</v>
       </c>
       <c r="I6">
-        <v>0.57483629560336769</v>
+        <v>0.58719346049046317</v>
       </c>
       <c r="J6">
-        <v>0.43778650949574327</v>
+        <v>0.44932649134060293</v>
       </c>
       <c r="K6">
-        <v>0.58863293299205877</v>
+        <v>0.59035357166198288</v>
       </c>
       <c r="L6">
-        <v>0.38846227682856593</v>
+        <v>0.39219614577370732</v>
       </c>
       <c r="M6">
-        <v>0.30837839735936512</v>
+        <v>0.31147311752779139</v>
       </c>
       <c r="N6">
-        <v>0.40124797781372773</v>
+        <v>0.40301396377713261</v>
       </c>
       <c r="O6">
-        <v>5.709677419354839</v>
+        <v>2.5368421052631578</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -716,46 +694,46 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.87153661966477902</v>
+        <v>0.87184834123222754</v>
       </c>
       <c r="C7">
-        <v>0.87934186471663622</v>
+        <v>0.89198036006546644</v>
       </c>
       <c r="D7">
-        <v>0.89082916599451523</v>
+        <v>0.89111021721641193</v>
       </c>
       <c r="E7">
-        <v>0.76020816653322654</v>
+        <v>0.76067982051754868</v>
       </c>
       <c r="F7">
-        <v>0.73133028521663401</v>
+        <v>0.73207694645881283</v>
       </c>
       <c r="G7">
-        <v>0.62771618625277159</v>
+        <v>0.63292522955837338</v>
       </c>
       <c r="H7">
-        <v>0.49022231370934544</v>
+        <v>0.49355828220858894</v>
       </c>
       <c r="I7">
-        <v>0.55144995322731527</v>
+        <v>0.56448683015440504</v>
       </c>
       <c r="J7">
-        <v>0.43123772102161101</v>
+        <v>0.44291212315586914</v>
       </c>
       <c r="K7">
-        <v>0.57222550370807901</v>
+        <v>0.57401477027645254</v>
       </c>
       <c r="L7">
-        <v>0.38097523516989823</v>
+        <v>0.38475481778286585</v>
       </c>
       <c r="M7">
-        <v>0.31203033920921414</v>
+        <v>0.31510871845067467</v>
       </c>
       <c r="N7">
-        <v>0.37952391957476311</v>
+        <v>0.38135397944605742</v>
       </c>
       <c r="O7">
-        <v>5.258064516129032</v>
+        <v>2.3894736842105262</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -763,47 +741,47 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.88430694386378317</v>
+        <v>0.88458767772511848</v>
       </c>
       <c r="C8">
-        <v>0.94515539305301643</v>
+        <v>0.95090016366612107</v>
       </c>
       <c r="D8" t="e">
         <f xml:space="preserve"> NA()</f>
         <v>#N/A</v>
       </c>
       <c r="E8">
-        <v>0.7795467142945125</v>
+        <v>0.77998033069026984</v>
       </c>
       <c r="F8">
-        <v>0.7898541258436752</v>
+        <v>0.79043814321073425</v>
       </c>
       <c r="G8">
-        <v>0.69334811529933482</v>
+        <v>0.69763882815916045</v>
       </c>
       <c r="H8">
-        <v>0.52562783038287364</v>
+        <v>0.52873210633946832</v>
       </c>
       <c r="I8">
-        <v>0.60383536014967254</v>
+        <v>0.61534968210717533</v>
       </c>
       <c r="J8">
-        <v>0.46856581532416502</v>
+        <v>0.47947402180885185</v>
       </c>
       <c r="K8">
-        <v>0.24827721992518212</v>
+        <v>0.25142147572054113</v>
       </c>
       <c r="L8">
-        <v>0.36427337300825496</v>
+        <v>0.36815493226483498</v>
       </c>
       <c r="M8">
-        <v>0.2932087927523</v>
+        <v>0.29637139061735301</v>
       </c>
       <c r="N8">
-        <v>0.41335798474693786</v>
+        <v>0.41508825291488088</v>
       </c>
       <c r="O8">
-        <v>5.903225806451613</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -815,43 +793,43 @@
         <v>#N/A</v>
       </c>
       <c r="C9">
-        <v>0.80797101449275366</v>
+        <v>0.82847896440129454</v>
       </c>
       <c r="D9">
-        <v>0.99963550209586294</v>
+        <v>0.99963659489415824</v>
       </c>
       <c r="E9">
-        <v>0.75484634286927765</v>
+        <v>0.75533621968573073</v>
       </c>
       <c r="F9">
-        <v>0.78029225397646451</v>
+        <v>0.78091553836234684</v>
       </c>
       <c r="G9">
-        <v>0.64786249449096522</v>
+        <v>0.65291051259774113</v>
       </c>
       <c r="H9">
-        <v>0.51867771978303145</v>
+        <v>0.52190708549354481</v>
       </c>
       <c r="I9">
-        <v>0.60077686663789387</v>
+        <v>0.61183382291229538</v>
       </c>
       <c r="J9">
-        <v>0.42278481012658226</v>
+        <v>0.43459392436453814</v>
       </c>
       <c r="K9">
-        <v>0.54989112335083901</v>
+        <v>0.55178571428571432</v>
       </c>
       <c r="L9">
-        <v>0.3057730832270989</v>
+        <v>0.3099203475742216</v>
       </c>
       <c r="M9">
-        <v>0.2689712160859386</v>
+        <v>0.27227858513846998</v>
       </c>
       <c r="N9">
-        <v>0.3830881049459316</v>
+        <v>0.38488731771984092</v>
       </c>
       <c r="O9">
-        <v>6.25</v>
+        <v>0.58064516129032262</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -859,46 +837,46 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0.87723222607463747</v>
+        <v>0.87753356391089288</v>
       </c>
       <c r="C10">
-        <v>0.86956521739130432</v>
+        <v>0.88349514563106801</v>
       </c>
       <c r="D10">
-        <v>1.0063787133223985</v>
+        <v>1.0063595893522304</v>
       </c>
       <c r="E10">
-        <v>0.76121712222795257</v>
+        <v>0.7616942686729844</v>
       </c>
       <c r="F10">
-        <v>0.75236001551791021</v>
+        <v>0.75306254029658282</v>
       </c>
       <c r="G10">
-        <v>0.64565888056412513</v>
+        <v>0.65073848827106862</v>
       </c>
       <c r="H10">
-        <v>0.55265581823764198</v>
+        <v>0.55565721256480638</v>
       </c>
       <c r="I10">
-        <v>0.5213638325420803</v>
+        <v>0.53462022660511954</v>
       </c>
       <c r="J10">
-        <v>0.41392405063291138</v>
+        <v>0.42591444513329202</v>
       </c>
       <c r="K10">
-        <v>0.58319456897655952</v>
+        <v>0.58494897959183678</v>
       </c>
       <c r="L10">
-        <v>0.34765980695683846</v>
+        <v>0.35155684286748734</v>
       </c>
       <c r="M10">
-        <v>0.28343203415507506</v>
+        <v>0.28667397861255828</v>
       </c>
       <c r="N10">
-        <v>0.35596525438751997</v>
+        <v>0.35784357048166149</v>
       </c>
       <c r="O10">
-        <v>6.083333333333333</v>
+        <v>0.56989247311827962</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -906,46 +884,46 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>0.83808671662379297</v>
+        <v>0.83848413849529546</v>
       </c>
       <c r="C11">
-        <v>0.84782608695652173</v>
+        <v>0.86407766990291257</v>
       </c>
       <c r="D11">
-        <v>1.0237834882449426</v>
+        <v>1.0237121831561733</v>
       </c>
       <c r="E11">
-        <v>0.76710250887358555</v>
+        <v>0.76756789488025678</v>
       </c>
       <c r="F11">
-        <v>0.74882538040432778</v>
+        <v>0.7495379325166559</v>
       </c>
       <c r="G11">
-        <v>0.66549140590568534</v>
+        <v>0.67028670721112071</v>
       </c>
       <c r="H11">
-        <v>0.53239177156892847</v>
+        <v>0.5355291247331504</v>
       </c>
       <c r="I11">
-        <v>0.11652999568407424</v>
+        <v>0.14099874108266891</v>
       </c>
       <c r="J11">
-        <v>0.43670886075949367</v>
+        <v>0.44823310601363919</v>
       </c>
       <c r="K11">
-        <v>0.58575637248623036</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="L11">
-        <v>0.32926607175377892</v>
+        <v>0.33327299058653148</v>
       </c>
       <c r="M11">
-        <v>0.30863517421842723</v>
+        <v>0.31176309295311216</v>
       </c>
       <c r="N11">
-        <v>0.37138805176387163</v>
+        <v>0.37322138753866546</v>
       </c>
       <c r="O11">
-        <v>5.583333333333333</v>
+        <v>0.5376344086021505</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -953,46 +931,46 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>0.84874920776945162</v>
+        <v>0.84912045817992488</v>
       </c>
       <c r="C12">
-        <v>0.75724637681159424</v>
+        <v>0.78317152103559873</v>
       </c>
       <c r="D12">
-        <v>1.0531255695279753</v>
+        <v>1.0529662941764333</v>
       </c>
       <c r="E12">
-        <v>0.75721263234535696</v>
+        <v>0.7576977807381392</v>
       </c>
       <c r="F12">
-        <v>0.75037717142980298</v>
+        <v>0.75108532129808725</v>
       </c>
       <c r="G12">
-        <v>0.65888056412516527</v>
+        <v>0.66377063423110338</v>
       </c>
       <c r="H12">
-        <v>0.56207143588169073</v>
+        <v>0.56500965741587883</v>
       </c>
       <c r="I12">
-        <v>0.63012516184721623</v>
+        <v>0.64036928241712132</v>
       </c>
       <c r="J12">
-        <v>0.38607594936708861</v>
+        <v>0.39863608183508992</v>
       </c>
       <c r="K12">
-        <v>0.53721019597796849</v>
+        <v>0.53915816326530608</v>
       </c>
       <c r="L12">
-        <v>0.32762702604261518</v>
+        <v>0.33164373642288197</v>
       </c>
       <c r="M12">
-        <v>0.31028783914061425</v>
+        <v>0.31340828077872224</v>
       </c>
       <c r="N12">
-        <v>0.35800390001772736</v>
+        <v>0.35987627043747239</v>
       </c>
       <c r="O12">
-        <v>6.166666666666667</v>
+        <v>0.57526881720430112</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1000,46 +978,46 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>0.86328896842262237</v>
+        <v>0.86362453047714682</v>
       </c>
       <c r="C13">
-        <v>0.83695652173913049</v>
+        <v>0.85436893203883491</v>
       </c>
       <c r="D13">
-        <v>1.0509385821031529</v>
+        <v>1.0507858635413827</v>
       </c>
       <c r="E13">
-        <v>0.75775869914752902</v>
+        <v>0.75824275636561811</v>
       </c>
       <c r="F13">
-        <v>0.78322341480236213</v>
+        <v>0.78383838383838389</v>
       </c>
       <c r="G13">
-        <v>0.65623622741295728</v>
+        <v>0.66116420503909645</v>
       </c>
       <c r="H13">
-        <v>0.55736362705966636</v>
+        <v>0.5603334349903426</v>
       </c>
       <c r="I13">
-        <v>0.63012516184721623</v>
+        <v>0.64036928241712132</v>
       </c>
       <c r="J13">
-        <v>0.38670886075949368</v>
+        <v>0.39925604463732178</v>
       </c>
       <c r="K13">
-        <v>0.5858844626617139</v>
+        <v>0.5876275510204082</v>
       </c>
       <c r="L13">
-        <v>0.32489528319067568</v>
+        <v>0.32892831281679941</v>
       </c>
       <c r="M13">
-        <v>0.31290455860074368</v>
+        <v>0.31601316150260489</v>
       </c>
       <c r="N13">
-        <v>0.37191987236305618</v>
+        <v>0.3737516570923553</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>0.532258064516129</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1048,59 +1026,59 @@
       </c>
       <c r="B14">
         <f xml:space="preserve"> MEDIAN(B4:B8, B10:B13)</f>
-        <v>0.86328896842262237</v>
+        <v>0.86362453047714682</v>
       </c>
       <c r="C14">
         <f xml:space="preserve"> MEDIAN(C4:C13)</f>
-        <v>0.85869565217391308</v>
+        <v>0.87378640776699035</v>
       </c>
       <c r="D14">
         <f xml:space="preserve"> MEDIAN(D4:D7, D9:D13)</f>
-        <v>0.99963550209586294</v>
+        <v>0.99963659489415824</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:O14" si="0" xml:space="preserve"> MEDIAN(E4:E13)</f>
-        <v>0.75898343284037773</v>
+        <f t="shared" ref="E14:N14" si="0" xml:space="preserve"> MEDIAN(E4:E13)</f>
+        <v>0.75946128844158345</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.75181684642649271</v>
+        <v>0.75251372705045827</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0.66218598501542525</v>
+        <v>0.66702867072111205</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>0.52840675174969132</v>
+        <v>0.53149284253578732</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.56314312441534153</v>
+        <v>0.5758401453224341</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0.42635638672668341</v>
+        <v>0.43811158694173025</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>0.57248802257662268</v>
+        <v>0.57427619109862094</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.33846293935530869</v>
+        <v>0.34241491672700941</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.30850678578889618</v>
+        <v>0.31161810524045175</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>0.37572189596890965</v>
+        <v>0.37755281826920639</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
-        <v>5.646505376344086</v>
+        <f xml:space="preserve"> MEDIAN(O4:O13)</f>
+        <v>1.4429541595925297</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1155,47 +1133,47 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0.54968802313194343</v>
+        <v>0.55124170616113743</v>
       </c>
       <c r="C18">
-        <v>0.50384615384615383</v>
+        <v>0.57774140752864156</v>
       </c>
       <c r="D18">
-        <v>0.49142072752230609</v>
+        <v>0.49328238133547869</v>
       </c>
       <c r="E18">
-        <v>0.44429377138102139</v>
+        <v>0.44584793164914871</v>
       </c>
       <c r="F18">
-        <v>0.53012468393059553</v>
+        <v>0.53198141473793914</v>
       </c>
       <c r="G18">
-        <v>0.56435422708008032</v>
+        <v>0.57302142544818535</v>
       </c>
       <c r="H18">
-        <v>0.49210444834348233</v>
+        <v>0.49683026584867074</v>
       </c>
       <c r="I18">
-        <v>0.50023685457129319</v>
+        <v>0.52089009990917345</v>
       </c>
       <c r="J18">
-        <v>0.17509084902543773</v>
+        <v>0.19916613213598461</v>
       </c>
       <c r="K18" t="e">
         <f xml:space="preserve"> NA()</f>
         <v>#N/A</v>
       </c>
       <c r="L18">
-        <v>0.27004138196516214</v>
+        <v>0.27637855371112385</v>
       </c>
       <c r="M18">
-        <v>0.4126090627638615</v>
+        <v>0.4163462210725023</v>
       </c>
       <c r="N18">
-        <v>0.20705294335431321</v>
+        <v>0.21037835844969816</v>
       </c>
       <c r="O18">
-        <v>9</v>
+        <v>1.3368421052631578</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1203,46 +1181,46 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>0.55577537665499921</v>
+        <v>0.55730805687203788</v>
       </c>
       <c r="C19">
-        <v>0.45769230769230768</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="D19">
-        <v>0.49683071581412247</v>
+        <v>0.49867256637168139</v>
       </c>
       <c r="E19">
-        <v>0.44078034949301936</v>
+        <v>0.44234433585346367</v>
       </c>
       <c r="F19">
-        <v>0.53265323916644869</v>
+        <v>0.53449997828824525</v>
       </c>
       <c r="G19">
-        <v>0.51751059558331469</v>
+        <v>0.52710975076519462</v>
       </c>
       <c r="H19">
-        <v>0.49231086799463308</v>
+        <v>0.49703476482617587</v>
       </c>
       <c r="I19">
-        <v>0.4007579346281383</v>
+        <v>0.42552225249772935</v>
       </c>
       <c r="J19">
-        <v>0.17773372976544433</v>
+        <v>0.20173187940987813</v>
       </c>
       <c r="K19">
-        <v>0.19881656804733727</v>
+        <v>0.20358146526370827</v>
       </c>
       <c r="L19">
-        <v>0.25310364738716196</v>
+        <v>0.2595878649112765</v>
       </c>
       <c r="M19">
-        <v>0.44962003940332113</v>
+        <v>0.45312172271551421</v>
       </c>
       <c r="N19">
-        <v>0.20973713439466865</v>
+        <v>0.21305129268629891</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>1.2947368421052632</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1250,46 +1228,46 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>0.3980368284888145</v>
+        <v>0.40011374407582939</v>
       </c>
       <c r="C20">
-        <v>0.31153846153846154</v>
+        <v>0.41407528641571195</v>
       </c>
       <c r="D20">
-        <v>0.39145706326456459</v>
+        <v>0.39368463395012065</v>
       </c>
       <c r="E20">
-        <v>0.32378956452060281</v>
+        <v>0.3256807425164423</v>
       </c>
       <c r="F20">
-        <v>0.51460458627604844</v>
+        <v>0.51652264536019799</v>
       </c>
       <c r="G20">
-        <v>0.50992638857907646</v>
+        <v>0.51967643200699609</v>
       </c>
       <c r="H20">
-        <v>0.38889462276808751</v>
+        <v>0.3945807770961145</v>
       </c>
       <c r="I20">
-        <v>0.25864519185220275</v>
+        <v>0.28928247048138056</v>
       </c>
       <c r="J20">
-        <v>0.1275189957053188</v>
+        <v>0.15298268120590122</v>
       </c>
       <c r="K20">
-        <v>0.14122287968441816</v>
+        <v>0.14633030520880988</v>
       </c>
       <c r="L20">
-        <v>0.13184486574920604</v>
+        <v>0.13938179736691472</v>
       </c>
       <c r="M20">
-        <v>0.22783563186039965</v>
+        <v>0.23274837446689506</v>
       </c>
       <c r="N20">
-        <v>0.21094039244724178</v>
+        <v>0.21424950458546477</v>
       </c>
       <c r="O20">
-        <v>3.5</v>
+        <v>1.1052631578947369</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1297,44 +1275,44 @@
         <v>4</v>
       </c>
       <c r="B21">
-        <v>0.57358088570993759</v>
+        <v>0.57505213270142175</v>
       </c>
       <c r="C21" t="e">
         <f xml:space="preserve"> NA()</f>
         <v>#N/A</v>
       </c>
       <c r="D21">
-        <v>0.51911663773264971</v>
+        <v>0.52087691069991959</v>
       </c>
       <c r="E21">
-        <v>0.43591087003420964</v>
+        <v>0.43748847501382998</v>
       </c>
       <c r="F21">
-        <v>0.52358531694132004</v>
+        <v>0.52546788831473357</v>
       </c>
       <c r="G21">
-        <v>0.56078518848985059</v>
+        <v>0.56952339309138611</v>
       </c>
       <c r="H21">
-        <v>0.47476519764681596</v>
+        <v>0.47965235173824133</v>
       </c>
       <c r="I21">
-        <v>0.46328754144954998</v>
+        <v>0.4854677565849228</v>
       </c>
       <c r="J21">
-        <v>0.16121572514040303</v>
+        <v>0.18569595894804361</v>
       </c>
       <c r="K21">
-        <v>0.16844181459566074</v>
+        <v>0.17338736030324817</v>
       </c>
       <c r="L21">
-        <v>0.27196612453084401</v>
+        <v>0.27828658652928828</v>
       </c>
       <c r="M21">
-        <v>0.44497607655502391</v>
+        <v>0.44850730615954693</v>
       </c>
       <c r="N21">
-        <v>0.20844131803035912</v>
+        <v>0.21176091064104335</v>
       </c>
       <c r="O21" t="e">
         <f xml:space="preserve"> NA()</f>
@@ -1346,46 +1324,46 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>0.55417744635519706</v>
+        <v>0.55571563981042649</v>
       </c>
       <c r="C22">
-        <v>0.45384615384615384</v>
+        <v>0.53518821603927991</v>
       </c>
       <c r="D22">
-        <v>0.50159473535467725</v>
+        <v>0.50341914722445691</v>
       </c>
       <c r="E22">
-        <v>0.42204209942367554</v>
+        <v>0.42365849160981006</v>
       </c>
       <c r="F22">
-        <v>0.52803208649402733</v>
+        <v>0.52989708628251331</v>
       </c>
       <c r="G22">
-        <v>0.53714030782957845</v>
+        <v>0.54634892872759078</v>
       </c>
       <c r="H22">
-        <v>0.44318299102074515</v>
+        <v>0.44836400817995908</v>
       </c>
       <c r="I22">
-        <v>0.38844149692089058</v>
+        <v>0.41371480472297911</v>
       </c>
       <c r="J22">
-        <v>0.1797158903204493</v>
+        <v>0.20365618986529826</v>
       </c>
       <c r="K22">
-        <v>0.18343195266272189</v>
+        <v>0.18828834716685183</v>
       </c>
       <c r="L22">
-        <v>0.25233375036088923</v>
+        <v>0.25882465178401071</v>
       </c>
       <c r="M22">
-        <v>0.41077962285392627</v>
+        <v>0.4145284206110606</v>
       </c>
       <c r="N22">
-        <v>0.2086264346538319</v>
+        <v>0.21194525093322272</v>
       </c>
       <c r="O22">
-        <v>9</v>
+        <v>1.3368421052631578</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1393,47 +1371,46 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>0.49854368932038834</v>
+        <v>0.50057644389899214</v>
       </c>
       <c r="C23">
-        <v>0.41453831041257366</v>
+        <v>0.51779935275080902</v>
       </c>
       <c r="D23">
-        <v>0.54430495320703032</v>
+        <v>0.54656127918597253</v>
       </c>
       <c r="E23">
-        <v>0.4061057108140948</v>
+        <v>0.40806563928668743</v>
       </c>
       <c r="F23">
-        <v>0.5097167040939713</v>
+        <v>0.51201375456694609</v>
       </c>
       <c r="G23">
-        <v>0.50166852057842048</v>
+        <v>0.51346655082536929</v>
       </c>
       <c r="H23">
-        <v>0.45446134868421051</v>
+        <v>0.46050625190606892</v>
       </c>
       <c r="I23">
-        <v>0.36191732629727352</v>
+        <v>0.39110365086026017</v>
       </c>
       <c r="J23">
-        <v>0.16137311517484762</v>
+        <v>0.18970861748295104</v>
       </c>
       <c r="K23">
-        <v>0.15997688009761737</v>
+        <v>0.16581632653061223</v>
       </c>
       <c r="L23">
-        <v>0.23173964713410733</v>
+        <v>0.23931933381607531</v>
       </c>
       <c r="M23">
-        <v>0.4070032460805304</v>
+        <v>0.41143405538799011</v>
       </c>
       <c r="N23">
-        <v>0.19603925225345234</v>
-      </c>
-      <c r="O23" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <v>0.1999116217410517</v>
+      </c>
+      <c r="O23">
+        <v>0.31720430107526881</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1441,47 +1418,46 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>0.48293502613890965</v>
+        <v>0.48503105359068766</v>
       </c>
       <c r="C24">
-        <v>0.38310412573673869</v>
+        <v>0.49190938511326859</v>
       </c>
       <c r="D24">
-        <v>0.56722209541200641</v>
+        <v>0.56936494957754158</v>
       </c>
       <c r="E24">
-        <v>0.4166160388821385</v>
+        <v>0.41854128190378154</v>
       </c>
       <c r="F24">
-        <v>0.56205735014683023</v>
+        <v>0.56410917687513429</v>
       </c>
       <c r="G24">
-        <v>0.47764182424916574</v>
+        <v>0.49000868809730669</v>
       </c>
       <c r="H24">
-        <v>0.50524259868421051</v>
+        <v>0.51072481447595808</v>
       </c>
       <c r="I24">
-        <v>0.35488126649076518</v>
+        <v>0.38438942509441881</v>
       </c>
       <c r="J24">
-        <v>0.16008982996470966</v>
+        <v>0.1884686918784873</v>
       </c>
       <c r="K24">
-        <v>0.18746387515252713</v>
+        <v>0.1931122448979592</v>
       </c>
       <c r="L24">
-        <v>0.23704177712770819</v>
+        <v>0.24456915278783489</v>
       </c>
       <c r="M24">
-        <v>0.3893224670212031</v>
+        <v>0.39388538524814914</v>
       </c>
       <c r="N24">
-        <v>0.18751387593801341</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="shared" ref="O24:O27" si="1" xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <v>0.19142730888201503</v>
+      </c>
+      <c r="O24">
+        <v>0.35483870967741937</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1489,47 +1465,46 @@
         <v>8</v>
       </c>
       <c r="B25">
-        <v>0.5703136669156087</v>
+        <v>0.57205548737401912</v>
       </c>
       <c r="C25">
-        <v>0.44204322200392926</v>
+        <v>0.54045307443365698</v>
       </c>
       <c r="D25">
-        <v>0.56941337594156582</v>
+        <v>0.57154538021259194</v>
       </c>
       <c r="E25">
-        <v>0.42900972053462938</v>
+        <v>0.43089406279330283</v>
       </c>
       <c r="F25">
-        <v>0.50453446191051998</v>
+        <v>0.5068557919621749</v>
       </c>
       <c r="G25">
-        <v>0.52969966629588427</v>
+        <v>0.54083405734144219</v>
       </c>
       <c r="H25">
-        <v>0.45960115131578949</v>
+        <v>0.46558910236860834</v>
       </c>
       <c r="I25">
-        <v>0.38390501319261211</v>
+        <v>0.41208560637851449</v>
       </c>
       <c r="J25">
-        <v>0.16201475777991659</v>
+        <v>0.1903285802851829</v>
       </c>
       <c r="K25">
-        <v>0.19504206537794619</v>
+        <v>0.20063775510204082</v>
       </c>
       <c r="L25">
-        <v>0.25916445744583599</v>
+        <v>0.2664735698769008</v>
       </c>
       <c r="M25">
-        <v>0.42275018993024382</v>
+        <v>0.42706333973128596</v>
       </c>
       <c r="N25">
-        <v>0.19186537009901869</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.19575784357048165</v>
+      </c>
+      <c r="O25">
+        <v>0.34946236559139787</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1537,47 +1512,46 @@
         <v>9</v>
       </c>
       <c r="B26">
-        <v>0.52274085138162807</v>
+        <v>0.52467551786976085</v>
       </c>
       <c r="C26">
-        <v>0.34381139489194501</v>
+        <v>0.45954692556634302</v>
       </c>
       <c r="D26">
-        <v>0.5510614015065054</v>
+        <v>0.55328427364404464</v>
       </c>
       <c r="E26">
-        <v>0.40039489671931955</v>
+        <v>0.40237367162190801</v>
       </c>
       <c r="F26">
-        <v>0.5260407669718431</v>
+        <v>0.52826133677197507</v>
       </c>
       <c r="G26">
-        <v>0.45850945494994438</v>
+        <v>0.47132927888792353</v>
       </c>
       <c r="H26">
-        <v>0.505859375</v>
+        <v>0.51133475653146288</v>
       </c>
       <c r="I26">
-        <v>0.36543535620052769</v>
+        <v>0.39446076374318084</v>
       </c>
       <c r="J26">
-        <v>0.16008982996470966</v>
+        <v>0.1884686918784873</v>
       </c>
       <c r="K26">
-        <v>0.15188491426369533</v>
+        <v>0.15778061224489795</v>
       </c>
       <c r="L26">
-        <v>0.21382210439711125</v>
+        <v>0.22157856625633598</v>
       </c>
       <c r="M26">
-        <v>0.37689066924511361</v>
+        <v>0.38154647655607349</v>
       </c>
       <c r="N26">
-        <v>0.1806758136850051</v>
-      </c>
-      <c r="O26" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.18462218294299601</v>
+      </c>
+      <c r="O26">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1585,47 +1559,46 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>0.54133681852128457</v>
+        <v>0.54319610249544426</v>
       </c>
       <c r="C27">
-        <v>0.48133595284872299</v>
+        <v>0.57281553398058249</v>
       </c>
       <c r="D27">
-        <v>0.54220497603286921</v>
+        <v>0.54447169982738253</v>
       </c>
       <c r="E27">
-        <v>0.41187727825030379</v>
+        <v>0.41381815979896452</v>
       </c>
       <c r="F27">
-        <v>0.48665572637761273</v>
+        <v>0.48906082097571457</v>
       </c>
       <c r="G27">
-        <v>0.52747497219132367</v>
+        <v>0.53866203301476978</v>
       </c>
       <c r="H27">
-        <v>0.53361430921052633</v>
+        <v>0.53878214902917554</v>
       </c>
       <c r="I27">
-        <v>0.41908531222515394</v>
+        <v>0.44565673520772137</v>
       </c>
       <c r="J27">
-        <v>0.16650625601539942</v>
+        <v>0.19466831990080596</v>
       </c>
       <c r="K27">
-        <v>0.16241731423800654</v>
+        <v>0.16823979591836735</v>
       </c>
       <c r="L27">
-        <v>0.27397385501416949</v>
+        <v>0.28113685734974658</v>
       </c>
       <c r="M27">
-        <v>0.41653429104219902</v>
+        <v>0.42089388538524813</v>
       </c>
       <c r="N27">
-        <v>0.21015940677589806</v>
-      </c>
-      <c r="O27" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.21396376491383121</v>
+      </c>
+      <c r="O27">
+        <v>0.37634408602150538</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1634,59 +1607,59 @@
       </c>
       <c r="B28">
         <f xml:space="preserve"> MEDIAN(B18:B27)</f>
-        <v>0.545512420826614</v>
+        <v>0.5472189043282909</v>
       </c>
       <c r="C28">
         <f xml:space="preserve"> MEDIAN(C18:C20, C22:C27)</f>
-        <v>0.44204322200392926</v>
+        <v>0.53518821603927991</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:J28" si="2" xml:space="preserve"> MEDIAN(D18:D27)</f>
-        <v>0.53066080688275941</v>
+        <f t="shared" ref="D28:J28" si="1" xml:space="preserve"> MEDIAN(D18:D27)</f>
+        <v>0.53267430526365112</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0.41932906915290702</v>
+        <f t="shared" si="1"/>
+        <v>0.42109988675679577</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>0.52481304195658152</v>
+        <f t="shared" si="1"/>
+        <v>0.52686461254335426</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>0.52249278388731923</v>
+        <f t="shared" si="1"/>
+        <v>0.53288589188998214</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
-        <v>0.48343482299514917</v>
+        <f t="shared" si="1"/>
+        <v>0.48824130879345606</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0.38617325505675137</v>
+        <f t="shared" si="1"/>
+        <v>0.4129002055507468</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>0.16169393647738212</v>
+        <f t="shared" si="1"/>
+        <v>0.19001859888406697</v>
       </c>
       <c r="K28">
         <f xml:space="preserve"> MEDIAN(K19:K27)</f>
-        <v>0.16844181459566074</v>
+        <v>0.17338736030324817</v>
       </c>
       <c r="L28">
         <f xml:space="preserve"> MEDIAN(L18:L27)</f>
-        <v>0.25271869887402559</v>
+        <v>0.2592062583476436</v>
       </c>
       <c r="M28">
         <f xml:space="preserve"> MEDIAN(M18:M27)</f>
-        <v>0.41169434280889389</v>
+        <v>0.41543732084178142</v>
       </c>
       <c r="N28">
         <f xml:space="preserve"> MEDIAN(N18:N27)</f>
-        <v>0.20774713069233616</v>
+        <v>0.21106963454537075</v>
       </c>
       <c r="O28">
-        <f xml:space="preserve"> MEDIAN(O18:O20, O22)</f>
-        <v>8.5</v>
+        <f xml:space="preserve"> MEDIAN(O18:O20, O22:O27)</f>
+        <v>0.37634408602150538</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -1741,43 +1714,43 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0.95022831050228307</v>
+        <v>0.95040758293838867</v>
       </c>
       <c r="C32">
-        <v>1.6744186046511629</v>
+        <v>1.5695581014729951</v>
       </c>
       <c r="D32">
-        <v>1.3813042600444174</v>
+        <v>1.3798471440064359</v>
       </c>
       <c r="E32">
-        <v>1.0041611441605276</v>
+        <v>1.0041489950212059</v>
       </c>
       <c r="F32">
-        <v>1.1655184442312723</v>
+        <v>1.1648356420165877</v>
       </c>
       <c r="G32">
-        <v>1.3842375530252289</v>
+        <v>1.3762571053782247</v>
       </c>
       <c r="H32">
-        <v>1.0740320082601962</v>
+        <v>1.0733128834355827</v>
       </c>
       <c r="I32">
-        <v>0.99383009017560509</v>
+        <v>0.99409627611262485</v>
       </c>
       <c r="J32">
-        <v>0.60469732054250747</v>
+        <v>0.61674150096215519</v>
       </c>
       <c r="K32">
-        <v>0.81086413257924506</v>
+        <v>0.81203842886085875</v>
       </c>
       <c r="L32">
-        <v>0.92692789063252146</v>
+        <v>0.9275901545506583</v>
       </c>
       <c r="M32">
-        <v>1.3795045045045045</v>
+        <v>1.3769838495420541</v>
       </c>
       <c r="N32">
-        <v>0.8585447139418626</v>
+        <v>0.85916401677496657</v>
       </c>
       <c r="O32" t="e">
         <f xml:space="preserve"> NA()</f>
@@ -1789,46 +1762,46 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>0.96971080669710807</v>
+        <v>0.96981990521327011</v>
       </c>
       <c r="C33">
-        <v>1.6511627906976745</v>
+        <v>1.5499181669394435</v>
       </c>
       <c r="D33">
-        <v>1.3926912982031092</v>
+        <v>1.3911906677393404</v>
       </c>
       <c r="E33">
-        <v>1.0284498967419782</v>
+        <v>1.0283668326264674</v>
       </c>
       <c r="F33">
-        <v>1.163425481817389</v>
+        <v>1.162751313561162</v>
       </c>
       <c r="G33">
-        <v>1.3418173699486493</v>
+        <v>1.3347179711412331</v>
       </c>
       <c r="H33">
-        <v>1.0267423851316468</v>
+        <v>1.0264826175869122</v>
       </c>
       <c r="I33">
-        <v>0.92643569055529185</v>
+        <v>0.92960944595821982</v>
       </c>
       <c r="J33">
-        <v>0.52265960965927882</v>
+        <v>0.53720333547145604</v>
       </c>
       <c r="K33">
-        <v>0.79613310535315007</v>
+        <v>0.79739886281942352</v>
       </c>
       <c r="L33">
-        <v>0.93328198709925869</v>
+        <v>0.93388666285060107</v>
       </c>
       <c r="M33">
-        <v>1.361204954954955</v>
+        <v>1.3588058449276375</v>
       </c>
       <c r="N33">
-        <v>0.84021477504165898</v>
+        <v>0.84091432784920961</v>
       </c>
       <c r="O33" t="e">
-        <f t="shared" ref="O33:O35" si="3" xml:space="preserve"> NA()</f>
+        <f t="shared" ref="O33:O36" si="2" xml:space="preserve"> NA()</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1837,46 +1810,46 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>0.98576864535768649</v>
+        <v>0.98581990521327012</v>
       </c>
       <c r="C34">
-        <v>1.6705426356589148</v>
+        <v>1.5662847790507366</v>
       </c>
       <c r="D34">
-        <v>1.4356551584898041</v>
+        <v>1.4339903459372485</v>
       </c>
       <c r="E34">
-        <v>0.9911537157476189</v>
+        <v>0.99117954391788066</v>
       </c>
       <c r="F34">
-        <v>1.1689195081538328</v>
+        <v>1.1682226757566547</v>
       </c>
       <c r="G34">
-        <v>1.3757535164099128</v>
+        <v>1.3679492785308265</v>
       </c>
       <c r="H34">
-        <v>1.1397005678884873</v>
+        <v>1.1383435582822086</v>
       </c>
       <c r="I34">
-        <v>0.8998576174655909</v>
+        <v>0.90417801998183467</v>
       </c>
       <c r="J34">
-        <v>0.53986106516705257</v>
+        <v>0.55388069275176399</v>
       </c>
       <c r="K34">
-        <v>0.82848875443903724</v>
+        <v>0.82955362394614729</v>
       </c>
       <c r="L34">
-        <v>0.93097140656589972</v>
+        <v>0.93159702346880369</v>
       </c>
       <c r="M34">
-        <v>1.3918918918918919</v>
+        <v>1.3892889603579668</v>
       </c>
       <c r="N34">
-        <v>0.85947046843177188</v>
+        <v>0.86008571823586344</v>
       </c>
       <c r="O34" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1885,46 +1858,46 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>0.75</v>
+        <v>0.75090047393364934</v>
       </c>
       <c r="C35">
-        <v>1.3527131782945736</v>
+        <v>1.2978723404255319</v>
       </c>
       <c r="D35">
-        <v>1.1310316979608319</v>
+        <v>1.1305309734513274</v>
       </c>
       <c r="E35">
-        <v>0.81126899485251058</v>
+        <v>0.81182002581596902</v>
       </c>
       <c r="F35">
-        <v>1.1535711171186884</v>
+        <v>1.1529376004168657</v>
       </c>
       <c r="G35">
-        <v>1.400312569770038</v>
+        <v>1.3919982509838216</v>
       </c>
       <c r="H35">
-        <v>0.89478575116159009</v>
+        <v>0.89580777096114517</v>
       </c>
       <c r="I35">
-        <v>0.66635026103464645</v>
+        <v>0.68074477747502271</v>
       </c>
       <c r="J35">
-        <v>0.41746609328481643</v>
+        <v>0.43521488133418856</v>
       </c>
       <c r="K35">
-        <v>0.65342627910035511</v>
+        <v>0.65557806679302011</v>
       </c>
       <c r="L35">
-        <v>0.68316164436314619</v>
+        <v>0.68603319977103605</v>
       </c>
       <c r="M35">
-        <v>0.9911317567567568</v>
+        <v>0.99119065930224426</v>
       </c>
       <c r="N35">
-        <v>0.84141825587854102</v>
+        <v>0.84211253974837552</v>
       </c>
       <c r="O35" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1933,46 +1906,46 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>1.0030441400304415</v>
+        <v>1.0030331753554502</v>
       </c>
       <c r="C36">
-        <v>1.682170542635659</v>
+        <v>1.5761047463175122</v>
       </c>
       <c r="D36">
-        <v>1.3817080557238037</v>
+        <v>1.380249396621078</v>
       </c>
       <c r="E36">
-        <v>1.023579816909657</v>
+        <v>1.0235109717868338</v>
       </c>
       <c r="F36">
-        <v>1.1751983953954828</v>
+        <v>1.1744756611229319</v>
       </c>
       <c r="G36">
-        <v>1.3324402768475105</v>
+        <v>1.3255356362046349</v>
       </c>
       <c r="H36">
-        <v>1.0996386164171399</v>
+        <v>1.0986707566462168</v>
       </c>
       <c r="I36">
-        <v>0.97959183673469385</v>
+        <v>0.98047229791099</v>
       </c>
       <c r="J36">
-        <v>0.51405888190539195</v>
+        <v>0.52886465683130213</v>
       </c>
       <c r="K36">
-        <v>0.8062606865710904</v>
+        <v>0.80746356447291023</v>
       </c>
       <c r="L36">
-        <v>0.88957350534321744</v>
+        <v>0.89057431787826746</v>
       </c>
       <c r="M36">
-        <v>1.3460022522522523</v>
+        <v>1.3437041180171991</v>
       </c>
       <c r="N36">
-        <v>0.79503795593408633</v>
+        <v>0.79593529655744499</v>
       </c>
       <c r="O36" t="e">
-        <f t="shared" ref="O36:O41" si="4" xml:space="preserve"> NA()</f>
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -1981,47 +1954,46 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>0.97839471622075447</v>
+        <v>0.97846703112797051</v>
       </c>
       <c r="C37">
-        <v>1.5795454545454546</v>
+        <v>1.4951456310679612</v>
       </c>
       <c r="D37">
-        <v>1.5970625798212006</v>
+        <v>1.5946216044335424</v>
       </c>
       <c r="E37">
-        <v>1.0098667233370777</v>
+        <v>1.0098398377183686</v>
       </c>
       <c r="F37">
-        <v>1.182740021574973</v>
+        <v>1.1820330969267139</v>
       </c>
       <c r="G37">
-        <v>1.181214000886132</v>
+        <v>1.1776715899218071</v>
       </c>
       <c r="H37">
-        <v>1.1059813275879757</v>
+        <v>1.1050116905560639</v>
       </c>
       <c r="I37">
-        <v>0.89315307457479287</v>
+        <v>0.89718841796055393</v>
       </c>
       <c r="J37">
-        <v>0.51147959183673475</v>
+        <v>0.52510849349039057</v>
       </c>
       <c r="K37">
-        <v>0.81616420782552923</v>
+        <v>0.81721938775510206</v>
       </c>
       <c r="L37">
-        <v>0.89249863113706884</v>
+        <v>0.89337436640115853</v>
       </c>
       <c r="M37">
-        <v>1.3383915022761761</v>
+        <v>1.336303811351796</v>
       </c>
       <c r="N37">
-        <v>0.78864241348713393</v>
-      </c>
-      <c r="O37" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>0.78948298718515242</v>
+      </c>
+      <c r="O37">
+        <v>1.6505376344086022</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2029,47 +2001,46 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>0.99354453524385233</v>
+        <v>0.99356614228866824</v>
       </c>
       <c r="C38">
-        <v>1.4621212121212122</v>
+        <v>1.3948220064724919</v>
       </c>
       <c r="D38">
-        <v>1.6275314723590586</v>
+        <v>1.6249659307713273</v>
       </c>
       <c r="E38">
-        <v>0.98855460092898995</v>
+        <v>0.9885857882466923</v>
       </c>
       <c r="F38">
-        <v>1.1492556634304207</v>
+        <v>1.1486782720825275</v>
       </c>
       <c r="G38">
-        <v>1.2370403190075321</v>
+        <v>1.2324066029539531</v>
       </c>
       <c r="H38">
-        <v>1.167743921206525</v>
+        <v>1.1662092101250381</v>
       </c>
       <c r="I38">
-        <v>0.85651984300043615</v>
+        <v>0.86193873268988674</v>
       </c>
       <c r="J38">
-        <v>0.38520408163265307</v>
+        <v>0.40235585864848111</v>
       </c>
       <c r="K38">
-        <v>0.74932649134060292</v>
+        <v>0.75076530612244896</v>
       </c>
       <c r="L38">
-        <v>0.807811644460668</v>
+        <v>0.80937726285300504</v>
       </c>
       <c r="M38">
-        <v>1.2022347910056559</v>
+        <v>1.200987112695366</v>
       </c>
       <c r="N38">
-        <v>0.78731144631765748</v>
-      </c>
-      <c r="O38" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>0.78815731330092798</v>
+      </c>
+      <c r="O38">
+        <v>1.6935483870967742</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2077,47 +2048,46 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>0.94906526362923993</v>
+        <v>0.94923574695972335</v>
       </c>
       <c r="C39">
-        <v>1.5568181818181819</v>
+        <v>1.4757281553398058</v>
       </c>
       <c r="D39">
-        <v>1.6110198868819559</v>
+        <v>1.6085218497319886</v>
       </c>
       <c r="E39">
-        <v>0.9843650384043231</v>
+        <v>0.98440764176935425</v>
       </c>
       <c r="F39">
-        <v>1.2050053937432579</v>
+        <v>1.2042123361272297</v>
       </c>
       <c r="G39">
-        <v>1.1936198493575543</v>
+        <v>1.1898349261511729</v>
       </c>
       <c r="H39">
-        <v>1.0561198317431004</v>
+        <v>1.055606384060181</v>
       </c>
       <c r="I39">
-        <v>0.90623637156563452</v>
+        <v>0.90977759127150648</v>
       </c>
       <c r="J39">
-        <v>0.56441326530612246</v>
+        <v>0.57656540607563544</v>
       </c>
       <c r="K39">
-        <v>0.79037844772289934</v>
+        <v>0.79158163265306125</v>
       </c>
       <c r="L39">
-        <v>0.85289286366125205</v>
+        <v>0.85409123823316435</v>
       </c>
       <c r="M39">
-        <v>1.2536901641605738</v>
+        <v>1.2521250342747463</v>
       </c>
       <c r="N39">
-        <v>0.81153504880212957</v>
-      </c>
-      <c r="O39" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>0.81228457799381348</v>
+      </c>
+      <c r="O39">
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2125,47 +2095,46 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>0.95406545020336575</v>
+        <v>0.95421919744133288</v>
       </c>
       <c r="C40">
-        <v>1.3674242424242424</v>
+        <v>1.3139158576051779</v>
       </c>
       <c r="D40">
-        <v>1.5174238277686554</v>
+        <v>1.5153084400835832</v>
       </c>
       <c r="E40">
-        <v>0.92977928898873674</v>
+        <v>0.92997063186896367</v>
       </c>
       <c r="F40">
-        <v>1.1664293419633225</v>
+        <v>1.1657855147216849</v>
       </c>
       <c r="G40">
-        <v>1.2268498006202924</v>
+        <v>1.2224152910512598</v>
       </c>
       <c r="H40">
-        <v>1.0823843233815533</v>
+        <v>1.0816305784283826</v>
       </c>
       <c r="I40">
-        <v>0.88355865678150891</v>
+        <v>0.887956357532522</v>
       </c>
       <c r="J40">
-        <v>0.5133928571428571</v>
+        <v>0.52696838189708617</v>
       </c>
       <c r="K40">
-        <v>0.78011545862732523</v>
+        <v>0.78137755102040818</v>
       </c>
       <c r="L40">
-        <v>0.7983208614710714</v>
+        <v>0.79996379435191889</v>
       </c>
       <c r="M40">
-        <v>1.2447234101255344</v>
+        <v>1.2432136002193583</v>
       </c>
       <c r="N40">
-        <v>0.73549245785270634</v>
-      </c>
-      <c r="O40" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>0.7365444100751215</v>
+      </c>
+      <c r="O40">
+        <v>1.4946236559139785</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2173,47 +2142,46 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>0.93316914810254115</v>
+        <v>0.93339283721968092</v>
       </c>
       <c r="C41">
-        <v>1.5303030303030303</v>
+        <v>1.4530744336569579</v>
       </c>
       <c r="D41">
-        <v>1.6601897463966429</v>
+        <v>1.6574906877441629</v>
       </c>
       <c r="E41">
-        <v>0.97598591335498952</v>
+        <v>0.97605134881467803</v>
       </c>
       <c r="F41">
-        <v>1.1997411003236247</v>
+        <v>1.1989684074790459</v>
       </c>
       <c r="G41">
-        <v>1.4426229508196722</v>
+        <v>1.4339704604691572</v>
       </c>
       <c r="H41">
-        <v>1.1640504770698676</v>
+        <v>1.1625495577920097</v>
       </c>
       <c r="I41">
-        <v>0.94286960313999124</v>
+        <v>0.94502727654217378</v>
       </c>
       <c r="J41">
-        <v>0.51211734693877553</v>
+        <v>0.52572845629262244</v>
       </c>
       <c r="K41">
-        <v>0.7958948043617704</v>
+        <v>0.79706632653061227</v>
       </c>
       <c r="L41">
-        <v>0.81967512319766378</v>
+        <v>0.82114409847936276</v>
       </c>
       <c r="M41">
-        <v>1.2506552627948682</v>
+        <v>1.2491088565944612</v>
       </c>
       <c r="N41">
-        <v>0.76539485359361137</v>
-      </c>
-      <c r="O41" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>0.76632788334069823</v>
+      </c>
+      <c r="O41">
+        <v>1.3870967741935485</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2221,60 +2189,60 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42:O42" si="5" xml:space="preserve"> MEDIAN(B32:B41)</f>
-        <v>0.96188812845023697</v>
+        <f t="shared" ref="B42:N42" si="3" xml:space="preserve"> MEDIAN(B32:B41)</f>
+        <v>0.96201955132730155</v>
       </c>
       <c r="C42">
-        <f t="shared" si="5"/>
-        <v>1.5681818181818183</v>
+        <f t="shared" si="3"/>
+        <v>1.4854368932038835</v>
       </c>
       <c r="D42">
-        <f t="shared" si="5"/>
-        <v>1.4765394931292297</v>
+        <f t="shared" si="3"/>
+        <v>1.4746493930104159</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>0.98985415833830448</v>
+        <f t="shared" si="3"/>
+        <v>0.98988266608228648</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
-        <v>1.1676744250585775</v>
+        <f t="shared" si="3"/>
+        <v>1.1670040952391698</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
-        <v>1.3371288233980798</v>
+        <f t="shared" si="3"/>
+        <v>1.3301268036729339</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
-        <v>1.0910114698993465</v>
+        <f t="shared" si="3"/>
+        <v>1.0901506675372996</v>
       </c>
       <c r="I42">
-        <f t="shared" si="5"/>
-        <v>0.90304699451561277</v>
+        <f t="shared" si="3"/>
+        <v>0.90697780562667063</v>
       </c>
       <c r="J42">
-        <f t="shared" si="5"/>
-        <v>0.51372586952412447</v>
+        <f t="shared" si="3"/>
+        <v>0.52791651936419415</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
-        <v>0.79601395485746029</v>
+        <f t="shared" si="3"/>
+        <v>0.79723259467501784</v>
       </c>
       <c r="L42">
-        <f t="shared" si="5"/>
-        <v>0.87123318450223475</v>
+        <f t="shared" si="3"/>
+        <v>0.87233277805571596</v>
       </c>
       <c r="M42">
-        <f t="shared" si="5"/>
-        <v>1.2960408332183748</v>
+        <f t="shared" si="3"/>
+        <v>1.2942144228132713</v>
       </c>
       <c r="N42">
-        <f t="shared" si="5"/>
-        <v>0.80328650236810795</v>
-      </c>
-      <c r="O42" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <f t="shared" si="3"/>
+        <v>0.80410993727562929</v>
+      </c>
+      <c r="O42">
+        <f xml:space="preserve"> MEDIAN(O37:O41)</f>
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2329,46 +2297,46 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>0.39887383959823469</v>
+        <v>0.40094786729857818</v>
       </c>
       <c r="C46">
-        <v>0.69230769230769229</v>
+        <v>0.73813420621931258</v>
       </c>
       <c r="D46">
-        <v>0.52501110258791228</v>
+        <v>0.52674979887369267</v>
       </c>
       <c r="E46">
-        <v>0.80925817486978768</v>
+        <v>0.80979162825004614</v>
       </c>
       <c r="F46">
-        <v>0.90243264452001049</v>
+        <v>0.90281818576577355</v>
       </c>
       <c r="G46">
-        <v>0.86995315636850323</v>
+        <v>0.8725404459991255</v>
       </c>
       <c r="H46">
-        <v>0.53091134275983076</v>
+        <v>0.53527607361963192</v>
       </c>
       <c r="I46">
-        <v>0.43675982946470865</v>
+        <v>0.46003633060853771</v>
       </c>
       <c r="J46">
-        <v>0.30591344565576478</v>
+        <v>0.3261706221937139</v>
       </c>
       <c r="K46">
-        <v>0.5910585141354372</v>
+        <v>0.59349062152800469</v>
       </c>
       <c r="L46">
-        <v>0.23847560388797998</v>
+        <v>0.24508681549322647</v>
       </c>
       <c r="M46">
-        <v>0.17647058823529413</v>
+        <v>0.18171013074180242</v>
       </c>
       <c r="N46">
-        <v>0.41530914476119957</v>
+        <v>0.41776118715148164</v>
       </c>
       <c r="O46">
-        <v>64</v>
+        <v>3.6526315789473682</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2376,47 +2344,47 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>0.52754527469182777</v>
+        <v>0.52917535545023697</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.82978723404255317</v>
       </c>
       <c r="D47">
-        <v>0.64217368484799553</v>
+        <v>0.64348350764279971</v>
       </c>
       <c r="E47">
-        <v>0.97784078651339101</v>
+        <v>0.97790275985002151</v>
       </c>
       <c r="F47">
-        <v>0.87583921876362369</v>
+        <v>0.87632984497807109</v>
       </c>
       <c r="G47">
-        <v>0.8891367387909882</v>
+        <v>0.89134236991692173</v>
       </c>
       <c r="H47">
-        <v>0.62400660542883679</v>
+        <v>0.62750511247443763</v>
       </c>
       <c r="I47">
-        <v>0.58360966366650879</v>
+        <v>0.60081743869209814</v>
       </c>
       <c r="J47">
-        <v>0.3019491245457549</v>
+        <v>0.32232200128287364</v>
       </c>
       <c r="K47" t="e">
-        <f xml:space="preserve"> NA()</f>
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="L47">
-        <v>0.34221922817823114</v>
+        <v>0.34792978439229155</v>
       </c>
       <c r="M47">
-        <v>0.30861244019138756</v>
+        <v>0.31301125637978044</v>
       </c>
       <c r="N47">
-        <v>0.4206775268419104</v>
+        <v>0.42310705562468315</v>
       </c>
       <c r="O47">
-        <v>59</v>
+        <v>3.4421052631578948</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2424,46 +2392,46 @@
         <v>3</v>
       </c>
       <c r="B48">
-        <v>0.54200273930908538</v>
+        <v>0.54358293838862559</v>
       </c>
       <c r="C48">
-        <v>0.79230769230769227</v>
+        <v>0.823240589198036</v>
       </c>
       <c r="D48">
-        <v>0.6237635754370382</v>
+        <v>0.62514078841512466</v>
       </c>
       <c r="E48">
-        <v>0.97747095263044348</v>
+        <v>0.97753396029258099</v>
       </c>
       <c r="F48">
-        <v>0.83799808178568314</v>
+        <v>0.83863823874245513</v>
       </c>
       <c r="G48">
-        <v>0.90073611420923494</v>
+        <v>0.90271097507651943</v>
       </c>
       <c r="H48">
-        <v>0.66446485705439162</v>
+        <v>0.66758691206543963</v>
       </c>
       <c r="I48">
-        <v>0.67171956418758882</v>
+        <v>0.68528610354223429</v>
       </c>
       <c r="J48">
-        <v>0.27882391807069706</v>
+        <v>0.2998717126363053</v>
       </c>
       <c r="K48">
-        <v>0.43839579224194608</v>
+        <v>0.44173583425919877</v>
       </c>
       <c r="L48">
-        <v>0.34741603310557212</v>
+        <v>0.35308147300133563</v>
       </c>
       <c r="M48">
-        <v>0.27877849704475094</v>
+        <v>0.28336712577780887</v>
       </c>
       <c r="N48">
-        <v>0.40633098852276933</v>
+        <v>0.4088206829807825</v>
       </c>
       <c r="O48">
-        <v>64.5</v>
+        <v>3.6736842105263157</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -2471,46 +2439,46 @@
         <v>4</v>
       </c>
       <c r="B49">
-        <v>0.60607213513924818</v>
+        <v>0.60743127962085308</v>
       </c>
       <c r="C49">
-        <v>0.83461538461538465</v>
+        <v>0.85924713584288048</v>
       </c>
       <c r="D49">
-        <v>0.6800436028907102</v>
+        <v>0.68121480289621883</v>
       </c>
       <c r="E49">
-        <v>1.0049619379295467</v>
+        <v>1.0049480607289938</v>
       </c>
       <c r="F49">
-        <v>0.90783852123114483</v>
+        <v>0.90820270094229016</v>
       </c>
       <c r="G49">
-        <v>0.9096587106848093</v>
+        <v>0.91145605596851775</v>
       </c>
       <c r="H49">
-        <v>0.68448756321601811</v>
+        <v>0.68742331288343561</v>
       </c>
       <c r="I49">
-        <v>0.6783514921837992</v>
+        <v>0.69164396003633066</v>
       </c>
       <c r="J49">
-        <v>0.33168153287082919</v>
+        <v>0.35118665811417576</v>
       </c>
       <c r="K49">
-        <v>0.68323471400394475</v>
+        <v>0.68511861969805898</v>
       </c>
       <c r="L49">
-        <v>0.3599268597825041</v>
+        <v>0.3654836863194047</v>
       </c>
       <c r="M49">
-        <v>0.28736279200675485</v>
+        <v>0.29189680486611203</v>
       </c>
       <c r="N49">
-        <v>0.46325435024065159</v>
+        <v>0.46550532282593665</v>
       </c>
       <c r="O49">
-        <v>63.5</v>
+        <v>3.6315789473684212</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -2518,47 +2486,47 @@
         <v>5</v>
       </c>
       <c r="B50">
-        <v>0.55105767767463099</v>
+        <v>0.55260663507109009</v>
       </c>
       <c r="C50">
-        <v>0.75</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="D50">
-        <v>0.68367717711655696</v>
+        <v>0.68483507642799679</v>
       </c>
       <c r="E50">
-        <v>1.0262273861990323</v>
+        <v>1.0261540352818244</v>
       </c>
       <c r="F50">
-        <v>0.91577295317813234</v>
+        <v>0.91610577966911289</v>
       </c>
       <c r="G50">
-        <v>0.88645995984831583</v>
+        <v>0.88871884564932224</v>
       </c>
       <c r="H50">
-        <v>0.68015275054185154</v>
+        <v>0.68312883435582827</v>
       </c>
       <c r="I50">
-        <v>0.58834675509237333</v>
+        <v>0.60535876475930972</v>
       </c>
       <c r="J50">
-        <v>0.29468120251073671</v>
+        <v>0.31526619627966646</v>
       </c>
       <c r="K50">
-        <v>0.65706771860618018</v>
+        <v>0.65910724789229458</v>
       </c>
       <c r="L50">
-        <v>0.39611202001732271</v>
+        <v>0.40135470330089679</v>
       </c>
       <c r="M50">
-        <v>0.30185758513931887</v>
+        <v>0.30629937775291899</v>
       </c>
       <c r="N50" t="e">
         <f xml:space="preserve"> NA()</f>
         <v>#N/A</v>
       </c>
       <c r="O50">
-        <v>73.5</v>
+        <v>4.0526315789473681</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -2566,46 +2534,46 @@
         <v>6</v>
       </c>
       <c r="B51">
-        <v>0.56899832120872973</v>
+        <v>0.57034475064152623</v>
       </c>
       <c r="C51">
-        <v>0.76029962546816476</v>
+        <v>0.79288025889967639</v>
       </c>
       <c r="D51">
-        <v>0.75795713634290929</v>
+        <v>0.75888071227400744</v>
       </c>
       <c r="E51">
-        <v>0.99189558354833818</v>
+        <v>0.99191619485906324</v>
       </c>
       <c r="F51">
-        <v>0.91367930632845862</v>
+        <v>0.91399097356544168</v>
       </c>
       <c r="G51">
-        <v>0.8584070796460177</v>
+        <v>0.86099044309296269</v>
       </c>
       <c r="H51">
-        <v>0.68102122423869582</v>
+        <v>0.68374504422079907</v>
       </c>
       <c r="I51">
-        <v>0.58895171813832103</v>
+        <v>0.60344104070499371</v>
       </c>
       <c r="J51">
-        <v>0.30617441120305539</v>
+        <v>0.32424054556726595</v>
       </c>
       <c r="K51">
-        <v>0.6451654270325724</v>
+        <v>0.64706632653061225</v>
       </c>
       <c r="L51">
-        <v>0.34439985406785845</v>
+        <v>0.34938450398262128</v>
       </c>
       <c r="M51">
-        <v>0.30005515719801434</v>
+        <v>0.30408554976693175</v>
       </c>
       <c r="N51">
-        <v>0.41390934090304266</v>
+        <v>0.41608484312859034</v>
       </c>
       <c r="O51">
-        <v>39.666666666666664</v>
+        <v>0.86559139784946237</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -2613,46 +2581,46 @@
         <v>7</v>
       </c>
       <c r="B52">
-        <v>0.4841634023503078</v>
+        <v>0.48577485217003236</v>
       </c>
       <c r="C52">
-        <v>0.67041198501872656</v>
+        <v>0.71521035598705507</v>
       </c>
       <c r="D52">
-        <v>0.75184678522571824</v>
+        <v>0.75279367675115838</v>
       </c>
       <c r="E52">
-        <v>0.98163606010016691</v>
+        <v>0.98168276363195983</v>
       </c>
       <c r="F52">
-        <v>0.89452568914196973</v>
+        <v>0.89490651192778847</v>
       </c>
       <c r="G52">
-        <v>0.89424778761061952</v>
+        <v>0.89617723718505649</v>
       </c>
       <c r="H52">
-        <v>0.70214293038039577</v>
+        <v>0.70468638812646134</v>
       </c>
       <c r="I52">
-        <v>0.58808177468464551</v>
+        <v>0.60260176248426356</v>
       </c>
       <c r="J52">
-        <v>0.33163590070019094</v>
+        <v>0.34903905765654059</v>
       </c>
       <c r="K52">
-        <v>0.67158245704026676</v>
+        <v>0.67334183673469383</v>
       </c>
       <c r="L52">
-        <v>0.34330536300620212</v>
+        <v>0.34829833454018827</v>
       </c>
       <c r="M52">
-        <v>0.26930501930501932</v>
+        <v>0.27351247600767753</v>
       </c>
       <c r="N52">
-        <v>0.39634524971170054</v>
+        <v>0.39858594785682722</v>
       </c>
       <c r="O52">
-        <v>42.333333333333336</v>
+        <v>0.90860215053763438</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -2660,46 +2628,46 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>0.53325872038798727</v>
+        <v>0.53471679869091449</v>
       </c>
       <c r="C53">
-        <v>0.76779026217228463</v>
+        <v>0.79935275080906154</v>
       </c>
       <c r="D53">
-        <v>0.7077063383492932</v>
+        <v>0.70882165894430815</v>
       </c>
       <c r="E53">
-        <v>0.98206101077553498</v>
+        <v>0.98210663356444339</v>
       </c>
       <c r="F53">
-        <v>0.90082395064923859</v>
+        <v>0.90118203309692668</v>
       </c>
       <c r="G53">
-        <v>0.8252212389380531</v>
+        <v>0.82841007819287571</v>
       </c>
       <c r="H53">
-        <v>0.65600328104173078</v>
+        <v>0.65894073396360675</v>
       </c>
       <c r="I53">
-        <v>0.52457590256633324</v>
+        <v>0.54133445237096101</v>
       </c>
       <c r="J53">
-        <v>0.29535327816677276</v>
+        <v>0.31370117792932423</v>
       </c>
       <c r="K53">
-        <v>0.57796870992562199</v>
+        <v>0.58022959183673473</v>
       </c>
       <c r="L53">
-        <v>0.34786574242977014</v>
+        <v>0.35282404055032585</v>
       </c>
       <c r="M53">
-        <v>0.30694980694980695</v>
+        <v>0.31094049904030713</v>
       </c>
       <c r="N53">
-        <v>0.44575534462875899</v>
+        <v>0.44781263809102961</v>
       </c>
       <c r="O53">
-        <v>40.333333333333336</v>
+        <v>0.87634408602150538</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -2707,46 +2675,46 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>0.52296213393023694</v>
+        <v>0.52445237829595748</v>
       </c>
       <c r="C54">
-        <v>0.61423220973782766</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D54">
-        <v>0.72840857273141812</v>
+        <v>0.72944489870082674</v>
       </c>
       <c r="E54">
-        <v>0.9735012900288359</v>
+        <v>0.9735686820672742</v>
       </c>
       <c r="F54">
-        <v>0.89107458694620589</v>
+        <v>0.89146787019127449</v>
       </c>
       <c r="G54">
-        <v>0.84159292035398225</v>
+        <v>0.84448305821025194</v>
       </c>
       <c r="H54">
-        <v>0.73638880344509383</v>
+        <v>0.73863982921622451</v>
       </c>
       <c r="I54">
-        <v>0.58460200086994341</v>
+        <v>0.59924464960134283</v>
       </c>
       <c r="J54">
-        <v>0.27816677275620622</v>
+        <v>0.29696218226906385</v>
       </c>
       <c r="K54">
-        <v>0.55668120030777124</v>
+        <v>0.55905612244897962</v>
       </c>
       <c r="L54">
-        <v>0.32725282743524259</v>
+        <v>0.33236784938450398</v>
       </c>
       <c r="M54">
-        <v>0.26682294539437396</v>
+        <v>0.27104469426926242</v>
       </c>
       <c r="N54">
-        <v>0.39714361749312516</v>
+        <v>0.39938135218736193</v>
       </c>
       <c r="O54">
-        <v>40.333333333333336</v>
+        <v>0.87634408602150538</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -2754,46 +2722,46 @@
         <v>10</v>
       </c>
       <c r="B55">
-        <v>0.54251072561089353</v>
+        <v>0.54393990107478896</v>
       </c>
       <c r="C55">
-        <v>0.8089887640449438</v>
+        <v>0.83495145631067957</v>
       </c>
       <c r="D55">
-        <v>0.70506155950752392</v>
+        <v>0.70618697192695556</v>
       </c>
       <c r="E55">
-        <v>0.9840643496736986</v>
+        <v>0.98410487753186593</v>
       </c>
       <c r="F55">
-        <v>0.9053966610586256</v>
+        <v>0.9057382333978079</v>
       </c>
       <c r="G55">
-        <v>0.8283185840707965</v>
+        <v>0.83145091225021717</v>
       </c>
       <c r="H55">
-        <v>0.75730544447862191</v>
+        <v>0.75937785910338518</v>
       </c>
       <c r="I55">
-        <v>0.5915615484993475</v>
+        <v>0.60595887536718418</v>
       </c>
       <c r="J55">
-        <v>0.23997453851050288</v>
+        <v>0.25976441413515189</v>
       </c>
       <c r="K55">
-        <v>0.59245960502692996</v>
+        <v>0.59464285714285714</v>
       </c>
       <c r="L55">
-        <v>0.35224370667639548</v>
+        <v>0.35716871832005792</v>
       </c>
       <c r="M55">
-        <v>0.30060672917815773</v>
+        <v>0.30463394570880176</v>
       </c>
       <c r="N55">
-        <v>0.41053845471480527</v>
+        <v>0.412726469288555</v>
       </c>
       <c r="O55">
-        <v>39</v>
+        <v>0.85483870967741937</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -2801,65 +2769,65 @@
         <v>19</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56:J56" si="6" xml:space="preserve"> MEDIAN(B46:B55)</f>
-        <v>0.53763072984853633</v>
+        <f xml:space="preserve"> MEDIAN(B46:B55)</f>
+        <v>0.53914986853976998</v>
       </c>
       <c r="C56">
-        <f t="shared" si="6"/>
-        <v>0.7640449438202247</v>
+        <f t="shared" ref="C56:J56" si="4" xml:space="preserve"> MEDIAN(C46:C55)</f>
+        <v>0.79611650485436902</v>
       </c>
       <c r="D56">
-        <f t="shared" si="6"/>
-        <v>0.69436936831204044</v>
+        <f t="shared" si="4"/>
+        <v>0.69551102417747623</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
-        <v>0.981848535437851</v>
+        <f t="shared" si="4"/>
+        <v>0.98189469859820155</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
-        <v>0.90162829758462459</v>
+        <f t="shared" si="4"/>
+        <v>0.90200010943135012</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
-        <v>0.87820655810840953</v>
+        <f t="shared" si="4"/>
+        <v>0.88062964582422387</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
-        <v>0.68058698739027368</v>
+        <f t="shared" si="4"/>
+        <v>0.68343693928831373</v>
       </c>
       <c r="I56">
-        <f t="shared" si="6"/>
-        <v>0.58821426488850936</v>
+        <f t="shared" si="4"/>
+        <v>0.60302140159462869</v>
       </c>
       <c r="J56">
-        <f t="shared" si="6"/>
-        <v>0.29865120135626383</v>
+        <f t="shared" si="4"/>
+        <v>0.31879409878127007</v>
       </c>
       <c r="K56">
         <f xml:space="preserve"> MEDIAN(K46, K48:K55)</f>
-        <v>0.59245960502692996</v>
+        <v>0.59464285714285714</v>
       </c>
       <c r="L56">
         <f xml:space="preserve"> MEDIAN(L46:L55)</f>
-        <v>0.34590794358671528</v>
+        <v>0.35110427226647356</v>
       </c>
       <c r="M56">
         <f xml:space="preserve"> MEDIAN(M46:M55)</f>
-        <v>0.2937089746023846</v>
+        <v>0.29799117731652192</v>
       </c>
       <c r="N56">
         <f xml:space="preserve"> MEDIAN(N46:N49, N51:N55)</f>
-        <v>0.41390934090304266</v>
+        <v>0.41608484312859034</v>
       </c>
       <c r="O56">
         <f xml:space="preserve"> MEDIAN(O46:O55)</f>
-        <v>50.666666666666671</v>
+        <v>2.1753537068477646</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -2868,59 +2836,59 @@
       </c>
       <c r="B60">
         <f xml:space="preserve"> MEDIAN(B4:B8, B10:B13)</f>
-        <v>0.86328896842262237</v>
+        <v>0.86362453047714682</v>
       </c>
       <c r="C60">
         <f xml:space="preserve"> MEDIAN(C4:C13)</f>
-        <v>0.85869565217391308</v>
+        <v>0.87378640776699035</v>
       </c>
       <c r="D60">
         <f xml:space="preserve"> MEDIAN(D4:D7, D9:D13)</f>
-        <v>0.99963550209586294</v>
+        <v>0.99963659489415824</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:O60" si="7" xml:space="preserve"> MEDIAN(E4:E13)</f>
-        <v>0.75898343284037773</v>
+        <f t="shared" ref="E60:N60" si="5" xml:space="preserve"> MEDIAN(E4:E13)</f>
+        <v>0.75946128844158345</v>
       </c>
       <c r="F60">
-        <f t="shared" si="7"/>
-        <v>0.75181684642649271</v>
+        <f t="shared" si="5"/>
+        <v>0.75251372705045827</v>
       </c>
       <c r="G60">
-        <f t="shared" si="7"/>
-        <v>0.66218598501542525</v>
+        <f t="shared" si="5"/>
+        <v>0.66702867072111205</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
-        <v>0.52840675174969132</v>
+        <f t="shared" si="5"/>
+        <v>0.53149284253578732</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
-        <v>0.56314312441534153</v>
+        <f t="shared" si="5"/>
+        <v>0.5758401453224341</v>
       </c>
       <c r="J60">
-        <f t="shared" si="7"/>
-        <v>0.42635638672668341</v>
+        <f t="shared" si="5"/>
+        <v>0.43811158694173025</v>
       </c>
       <c r="K60">
-        <f t="shared" si="7"/>
-        <v>0.57248802257662268</v>
+        <f t="shared" si="5"/>
+        <v>0.57427619109862094</v>
       </c>
       <c r="L60">
-        <f t="shared" si="7"/>
-        <v>0.33846293935530869</v>
+        <f t="shared" si="5"/>
+        <v>0.34241491672700941</v>
       </c>
       <c r="M60">
-        <f t="shared" si="7"/>
-        <v>0.30850678578889618</v>
+        <f t="shared" si="5"/>
+        <v>0.31161810524045175</v>
       </c>
       <c r="N60">
-        <f t="shared" si="7"/>
-        <v>0.37572189596890965</v>
+        <f t="shared" si="5"/>
+        <v>0.37755281826920639</v>
       </c>
       <c r="O60">
-        <f t="shared" si="7"/>
-        <v>5.646505376344086</v>
+        <f xml:space="preserve"> MEDIAN(O4:O13)</f>
+        <v>1.4429541595925297</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -2929,59 +2897,59 @@
       </c>
       <c r="B61">
         <f xml:space="preserve"> MEDIAN(B18:B27)</f>
-        <v>0.545512420826614</v>
+        <v>0.5472189043282909</v>
       </c>
       <c r="C61">
         <f xml:space="preserve"> MEDIAN(C18:C20, C22:C27)</f>
-        <v>0.44204322200392926</v>
+        <v>0.53518821603927991</v>
       </c>
       <c r="D61">
-        <f t="shared" ref="D61:J61" si="8" xml:space="preserve"> MEDIAN(D18:D27)</f>
-        <v>0.53066080688275941</v>
+        <f t="shared" ref="D61:J61" si="6" xml:space="preserve"> MEDIAN(D18:D27)</f>
+        <v>0.53267430526365112</v>
       </c>
       <c r="E61">
-        <f t="shared" si="8"/>
-        <v>0.41932906915290702</v>
+        <f t="shared" si="6"/>
+        <v>0.42109988675679577</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
-        <v>0.52481304195658152</v>
+        <f t="shared" si="6"/>
+        <v>0.52686461254335426</v>
       </c>
       <c r="G61">
-        <f t="shared" si="8"/>
-        <v>0.52249278388731923</v>
+        <f t="shared" si="6"/>
+        <v>0.53288589188998214</v>
       </c>
       <c r="H61">
-        <f t="shared" si="8"/>
-        <v>0.48343482299514917</v>
+        <f t="shared" si="6"/>
+        <v>0.48824130879345606</v>
       </c>
       <c r="I61">
-        <f t="shared" si="8"/>
-        <v>0.38617325505675137</v>
+        <f t="shared" si="6"/>
+        <v>0.4129002055507468</v>
       </c>
       <c r="J61">
-        <f t="shared" si="8"/>
-        <v>0.16169393647738212</v>
+        <f t="shared" si="6"/>
+        <v>0.19001859888406697</v>
       </c>
       <c r="K61">
         <f xml:space="preserve"> MEDIAN(K19:K27)</f>
-        <v>0.16844181459566074</v>
+        <v>0.17338736030324817</v>
       </c>
       <c r="L61">
         <f xml:space="preserve"> MEDIAN(L18:L27)</f>
-        <v>0.25271869887402559</v>
+        <v>0.2592062583476436</v>
       </c>
       <c r="M61">
         <f xml:space="preserve"> MEDIAN(M18:M27)</f>
-        <v>0.41169434280889389</v>
+        <v>0.41543732084178142</v>
       </c>
       <c r="N61">
         <f xml:space="preserve"> MEDIAN(N18:N27)</f>
-        <v>0.20774713069233616</v>
+        <v>0.21106963454537075</v>
       </c>
       <c r="O61">
-        <f xml:space="preserve"> MEDIAN(O18:O20, O22)</f>
-        <v>8.5</v>
+        <f xml:space="preserve"> MEDIAN(O18:O20, O22:O27)</f>
+        <v>0.37634408602150538</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -2989,60 +2957,60 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:N62" si="9" xml:space="preserve"> MEDIAN(B32:B41)</f>
-        <v>0.96188812845023697</v>
+        <f xml:space="preserve"> MEDIAN(B32:B41)</f>
+        <v>0.96201955132730155</v>
       </c>
       <c r="C62">
-        <f t="shared" si="9"/>
-        <v>1.5681818181818183</v>
+        <f xml:space="preserve"> MEDIAN(C32:C41)</f>
+        <v>1.4854368932038835</v>
       </c>
       <c r="D62">
-        <f t="shared" si="9"/>
-        <v>1.4765394931292297</v>
+        <f t="shared" ref="D62:N62" si="7" xml:space="preserve"> MEDIAN(D32:D41)</f>
+        <v>1.4746493930104159</v>
       </c>
       <c r="E62">
-        <f t="shared" si="9"/>
-        <v>0.98985415833830448</v>
+        <f t="shared" si="7"/>
+        <v>0.98988266608228648</v>
       </c>
       <c r="F62">
-        <f t="shared" si="9"/>
-        <v>1.1676744250585775</v>
+        <f t="shared" si="7"/>
+        <v>1.1670040952391698</v>
       </c>
       <c r="G62">
-        <f t="shared" si="9"/>
-        <v>1.3371288233980798</v>
+        <f t="shared" si="7"/>
+        <v>1.3301268036729339</v>
       </c>
       <c r="H62">
-        <f t="shared" si="9"/>
-        <v>1.0910114698993465</v>
+        <f t="shared" si="7"/>
+        <v>1.0901506675372996</v>
       </c>
       <c r="I62">
-        <f t="shared" si="9"/>
-        <v>0.90304699451561277</v>
+        <f t="shared" si="7"/>
+        <v>0.90697780562667063</v>
       </c>
       <c r="J62">
-        <f t="shared" si="9"/>
-        <v>0.51372586952412447</v>
+        <f t="shared" si="7"/>
+        <v>0.52791651936419415</v>
       </c>
       <c r="K62">
-        <f t="shared" si="9"/>
-        <v>0.79601395485746029</v>
+        <f t="shared" si="7"/>
+        <v>0.79723259467501784</v>
       </c>
       <c r="L62">
-        <f t="shared" si="9"/>
-        <v>0.87123318450223475</v>
+        <f t="shared" si="7"/>
+        <v>0.87233277805571596</v>
       </c>
       <c r="M62">
-        <f t="shared" si="9"/>
-        <v>1.2960408332183748</v>
+        <f t="shared" si="7"/>
+        <v>1.2942144228132713</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
-        <v>0.80328650236810795</v>
-      </c>
-      <c r="O62" s="10" t="e">
-        <f xml:space="preserve"> NA()</f>
-        <v>#N/A</v>
+        <f t="shared" si="7"/>
+        <v>0.80410993727562929</v>
+      </c>
+      <c r="O62">
+        <f xml:space="preserve"> MEDIAN(O37:O41)</f>
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3050,601 +3018,60 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:J63" si="10" xml:space="preserve"> MEDIAN(B46:B55)</f>
-        <v>0.53763072984853633</v>
+        <f xml:space="preserve"> MEDIAN(B46:B55)</f>
+        <v>0.53914986853976998</v>
       </c>
       <c r="C63">
-        <f t="shared" si="10"/>
-        <v>0.7640449438202247</v>
+        <f t="shared" ref="C63:J63" si="8" xml:space="preserve"> MEDIAN(C46:C55)</f>
+        <v>0.79611650485436902</v>
       </c>
       <c r="D63">
-        <f t="shared" si="10"/>
-        <v>0.69436936831204044</v>
+        <f t="shared" si="8"/>
+        <v>0.69551102417747623</v>
       </c>
       <c r="E63">
-        <f t="shared" si="10"/>
-        <v>0.981848535437851</v>
+        <f t="shared" si="8"/>
+        <v>0.98189469859820155</v>
       </c>
       <c r="F63">
-        <f t="shared" si="10"/>
-        <v>0.90162829758462459</v>
+        <f t="shared" si="8"/>
+        <v>0.90200010943135012</v>
       </c>
       <c r="G63">
-        <f t="shared" si="10"/>
-        <v>0.87820655810840953</v>
+        <f t="shared" si="8"/>
+        <v>0.88062964582422387</v>
       </c>
       <c r="H63">
-        <f t="shared" si="10"/>
-        <v>0.68058698739027368</v>
+        <f t="shared" si="8"/>
+        <v>0.68343693928831373</v>
       </c>
       <c r="I63">
-        <f t="shared" si="10"/>
-        <v>0.58821426488850936</v>
+        <f t="shared" si="8"/>
+        <v>0.60302140159462869</v>
       </c>
       <c r="J63">
-        <f t="shared" si="10"/>
-        <v>0.29865120135626383</v>
+        <f t="shared" si="8"/>
+        <v>0.31879409878127007</v>
       </c>
       <c r="K63">
         <f xml:space="preserve"> MEDIAN(K46, K48:K55)</f>
-        <v>0.59245960502692996</v>
+        <v>0.59464285714285714</v>
       </c>
       <c r="L63">
         <f xml:space="preserve"> MEDIAN(L46:L55)</f>
-        <v>0.34590794358671528</v>
+        <v>0.35110427226647356</v>
       </c>
       <c r="M63">
         <f xml:space="preserve"> MEDIAN(M46:M55)</f>
-        <v>0.2937089746023846</v>
+        <v>0.29799117731652192</v>
       </c>
       <c r="N63">
         <f xml:space="preserve"> MEDIAN(N46:N49, N51:N55)</f>
-        <v>0.41390934090304266</v>
+        <v>0.41608484312859034</v>
       </c>
       <c r="O63">
         <f xml:space="preserve"> MEDIAN(O46:O55)</f>
-        <v>50.666666666666671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:N67" si="11" xml:space="preserve"> (B60 - AVERAGE(B60:B61, B63)) / _xlfn.STDEV.P(B60:B61, B63)</f>
-        <v>1.4138953702683708</v>
-      </c>
-      <c r="C67">
-        <f t="shared" si="11"/>
-        <v>0.95567656269371992</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="11"/>
-        <v>1.3279582088273194</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="11"/>
-        <v>0.16831462818262571</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="11"/>
-        <v>0.16610536702998069</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="11"/>
-        <v>-0.17387079611758854</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="11"/>
-        <v>-0.42361169346914634</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="11"/>
-        <v>0.56309998090937274</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="11"/>
-        <v>1.2102268421502138</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="11"/>
-        <v>0.6553723257666999</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="11"/>
-        <v>0.61724282003746356</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="11"/>
-        <v>-0.56142041380041663</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="11"/>
-        <v>0.48309648369465535</v>
-      </c>
-      <c r="O67">
-        <f xml:space="preserve"> (O60 - AVERAGE(O60:O61, O63)) / _xlfn.STDEV.P(O60:O61, O63)</f>
-        <v>-0.77528974260648575</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68:N68" si="12" xml:space="preserve"> (B61 - AVERAGE(B60:B61, B63)) / _xlfn.STDEV.P(B60:B61, B63)</f>
-        <v>-0.68096862721724782</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="12"/>
-        <v>-1.380618282586602</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="12"/>
-        <v>-1.0851622554371789</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="12"/>
-        <v>-1.3001970500600077</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="12"/>
-        <v>-1.2993202343782313</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="12"/>
-        <v>-1.1285178958579518</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="12"/>
-        <v>-0.95670382368632489</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="12"/>
-        <v>-1.4050217562881238</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="12"/>
-        <v>-1.2387641473465607</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="12"/>
-        <v>-1.4129812084651303</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="12"/>
-        <v>-1.4105553807420896</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="12"/>
-        <v>1.4048122214994798</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="12"/>
-        <v>-1.3926187612254375</v>
-      </c>
-      <c r="O68">
-        <f xml:space="preserve"> (O61 - AVERAGE(O60:O61, O63)) / _xlfn.STDEV.P(O60:O61, O63)</f>
-        <v>-0.63665701840353484</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ref="B69:N69" si="13" xml:space="preserve"> (B62 - AVERAGE(B60:B61, B63)) / _xlfn.STDEV.P(B60:B61, B63)</f>
-        <v>2.0638861643868966</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="13"/>
-        <v>4.9339777855276319</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="13"/>
-        <v>3.7818790535950546</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="13"/>
-        <v>1.1664951104743693</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="13"/>
-        <v>2.8506786220472171</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>4.4386101116800889</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="13"/>
-        <v>6.2454406681853047</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="13"/>
-        <v>4.3432474021993457</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="13"/>
-        <v>2.0186795558856843</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="13"/>
-        <v>1.7996242526337369</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="13"/>
-        <v>13.216929265142138</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="13"/>
-        <v>18.255980914436591</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="13"/>
-        <v>5.2575603687356329</v>
-      </c>
-      <c r="O69" t="e">
-        <f xml:space="preserve"> (O62 - AVERAGE(O60:O61, O63)) / _xlfn.STDEV.P(O60:O61, O63)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ref="B70:N70" si="14" xml:space="preserve"> (B63 - AVERAGE(B60:B61, B63)) / _xlfn.STDEV.P(B60:B61, B63)</f>
-        <v>-0.73292674305112226</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="14"/>
-        <v>0.42494171989288243</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="14"/>
-        <v>-0.24279595339013874</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="14"/>
-        <v>1.1318824218773811</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="14"/>
-        <v>1.1332148673482521</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="14"/>
-        <v>1.3023886919755425</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="14"/>
-        <v>1.3803155171554713</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="14"/>
-        <v>0.84192177537875101</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="14"/>
-        <v>2.8537305196346271E-2</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="14"/>
-        <v>0.75760888269843052</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="14"/>
-        <v>0.79331256070462741</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="14"/>
-        <v>-0.8433918076990643</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="14"/>
-        <v>0.90952227753078185</v>
-      </c>
-      <c r="O70">
-        <f xml:space="preserve"> (O63 - AVERAGE(O60:O61, O63)) / _xlfn.STDEV.P(O60:O61, O63)</f>
-        <v>1.4119467610100209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74">
-        <v>0.86328896842262237</v>
-      </c>
-      <c r="C74">
-        <v>0.85869565217391308</v>
-      </c>
-      <c r="D74">
-        <v>0.99963550209586294</v>
-      </c>
-      <c r="E74">
-        <v>0.75898343284037773</v>
-      </c>
-      <c r="F74">
-        <v>0.75181684642649271</v>
-      </c>
-      <c r="G74">
-        <v>0.66218598501542525</v>
-      </c>
-      <c r="H74">
-        <v>0.52840675174969132</v>
-      </c>
-      <c r="I74">
-        <v>0.56314312441534153</v>
-      </c>
-      <c r="J74">
-        <v>0.42635638672668341</v>
-      </c>
-      <c r="K74">
-        <v>0.57248802257662268</v>
-      </c>
-      <c r="L74">
-        <v>0.33846293935530869</v>
-      </c>
-      <c r="M74">
-        <v>0.30850678578889618</v>
-      </c>
-      <c r="N74">
-        <v>0.37572189596890965</v>
-      </c>
-      <c r="O74">
-        <v>5.646505376344086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75">
-        <v>0.545512420826614</v>
-      </c>
-      <c r="C75">
-        <v>0.44204322200392926</v>
-      </c>
-      <c r="D75">
-        <v>0.53066080688275941</v>
-      </c>
-      <c r="E75">
-        <v>0.41932906915290702</v>
-      </c>
-      <c r="F75">
-        <v>0.52481304195658152</v>
-      </c>
-      <c r="G75">
-        <v>0.52249278388731923</v>
-      </c>
-      <c r="H75">
-        <v>0.48343482299514917</v>
-      </c>
-      <c r="I75">
-        <v>0.38617325505675137</v>
-      </c>
-      <c r="J75">
-        <v>0.16169393647738212</v>
-      </c>
-      <c r="K75">
-        <v>0.16844181459566074</v>
-      </c>
-      <c r="L75">
-        <v>0.25271869887402559</v>
-      </c>
-      <c r="M75">
-        <v>0.41169434280889389</v>
-      </c>
-      <c r="N75">
-        <v>0.20774713069233616</v>
-      </c>
-      <c r="O75">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76">
-        <v>0.53763072984853633</v>
-      </c>
-      <c r="C76">
-        <v>0.7640449438202247</v>
-      </c>
-      <c r="D76">
-        <v>0.69436936831204044</v>
-      </c>
-      <c r="E76">
-        <v>0.981848535437851</v>
-      </c>
-      <c r="F76">
-        <v>0.90162829758462459</v>
-      </c>
-      <c r="G76">
-        <v>0.87820655810840953</v>
-      </c>
-      <c r="H76">
-        <v>0.68058698739027368</v>
-      </c>
-      <c r="I76">
-        <v>0.58821426488850936</v>
-      </c>
-      <c r="J76">
-        <v>0.29865120135626383</v>
-      </c>
-      <c r="K76">
-        <v>0.59245960502692996</v>
-      </c>
-      <c r="L76">
-        <v>0.34590794358671528</v>
-      </c>
-      <c r="M76">
-        <v>0.2937089746023846</v>
-      </c>
-      <c r="N76">
-        <v>0.41390934090304266</v>
-      </c>
-      <c r="O76">
-        <v>50.666666666666671</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>1.4138953702683708</v>
-      </c>
-      <c r="C81">
-        <v>0.95567656269371992</v>
-      </c>
-      <c r="D81">
-        <v>1.3279582088273194</v>
-      </c>
-      <c r="E81">
-        <v>0.16831462818262571</v>
-      </c>
-      <c r="F81">
-        <v>0.16610536702998069</v>
-      </c>
-      <c r="G81">
-        <v>-0.17387079611758854</v>
-      </c>
-      <c r="H81">
-        <v>-0.42361169346914634</v>
-      </c>
-      <c r="I81">
-        <v>0.56309998090937274</v>
-      </c>
-      <c r="J81">
-        <v>1.2102268421502138</v>
-      </c>
-      <c r="K81">
-        <v>0.6553723257666999</v>
-      </c>
-      <c r="L81">
-        <v>0.61724282003746356</v>
-      </c>
-      <c r="M81">
-        <v>-0.56142041380041663</v>
-      </c>
-      <c r="N81">
-        <v>0.48309648369465535</v>
-      </c>
-      <c r="O81">
-        <v>-0.77528974260648575</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82">
-        <v>-0.68096862721724782</v>
-      </c>
-      <c r="C82">
-        <v>-1.380618282586602</v>
-      </c>
-      <c r="D82">
-        <v>-1.0851622554371789</v>
-      </c>
-      <c r="E82">
-        <v>-1.3001970500600077</v>
-      </c>
-      <c r="F82">
-        <v>-1.2993202343782313</v>
-      </c>
-      <c r="G82">
-        <v>-1.1285178958579518</v>
-      </c>
-      <c r="H82">
-        <v>-0.95670382368632489</v>
-      </c>
-      <c r="I82">
-        <v>-1.4050217562881238</v>
-      </c>
-      <c r="J82">
-        <v>-1.2387641473465607</v>
-      </c>
-      <c r="K82">
-        <v>-1.4129812084651303</v>
-      </c>
-      <c r="L82">
-        <v>-1.4105553807420896</v>
-      </c>
-      <c r="M82">
-        <v>1.4048122214994798</v>
-      </c>
-      <c r="N82">
-        <v>-1.3926187612254375</v>
-      </c>
-      <c r="O82">
-        <v>-0.63665701840353484</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>-0.73292674305112226</v>
-      </c>
-      <c r="C83">
-        <v>0.42494171989288243</v>
-      </c>
-      <c r="D83">
-        <v>-0.24279595339013874</v>
-      </c>
-      <c r="E83">
-        <v>1.1318824218773811</v>
-      </c>
-      <c r="F83">
-        <v>1.1332148673482521</v>
-      </c>
-      <c r="G83">
-        <v>1.3023886919755425</v>
-      </c>
-      <c r="H83">
-        <v>1.3803155171554713</v>
-      </c>
-      <c r="I83">
-        <v>0.84192177537875101</v>
-      </c>
-      <c r="J83">
-        <v>2.8537305196346271E-2</v>
-      </c>
-      <c r="K83">
-        <v>0.75760888269843052</v>
-      </c>
-      <c r="L83">
-        <v>0.79331256070462741</v>
-      </c>
-      <c r="M83">
-        <v>-0.8433918076990643</v>
-      </c>
-      <c r="N83">
-        <v>0.90952227753078185</v>
-      </c>
-      <c r="O83">
-        <v>1.4119467610100209</v>
+        <v>2.1753537068477646</v>
       </c>
     </row>
   </sheetData>
